--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_end.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-17_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The "Deathless Black Snake" threatens the two with Talulah's life, knowing that the death of Talulah would not stop the war.
+    <t xml:space="preserve">The 'Deathless Black Snake' threatens the two with Talulah's life, knowing that the death of Talulah would not stop the war.
 </t>
   </si>
   <si>
